--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_190.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_190.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,43 +488,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>schubert-winterreise_43</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min']]</t>
-        </is>
+      <c r="D2" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(74.5, 80.42)]</t>
+          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[('0:01:25.160000', '0:01:34.900000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:33.300000', '0:01:43.060000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
@@ -528,88 +538,98 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>isophonics_14</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06995192307692308</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['C:7', 'F', 'C/3']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(81.62, 103.56)]</t>
+          <t>[['G:7/F', 'C:maj/E', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(86.98, 111.2)]</t>
+          <t>[('0:00:12.503707', '0:00:19.759943')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:59.620000', '0:01:04.340000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A#:min/C#', 'F:min/C', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_255</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1136044880785414</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['D:min', 'G:min/5', 'D:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(43.38, 45.8)]</t>
+          <t>[['G:min', 'C:min/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(1.68, 5.3)]</t>
+          <t>[('0:00:27.789047', '0:00:31.109501')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:00.220000', '0:00:03.440000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -618,583 +638,558 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_224</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1120923913043478</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(36.28, 38.0), (36.14, 37.58), (9.62, 14.18)]</t>
+          <t>[['E:7', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(12.42, 27.08), (55.72, 64.64), (0.82, 6.76)]</t>
+          <t>[('0:00:44.860000', '0:00:47.360000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:55.002834', '0:00:59.124376')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_238</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.09855072463768116</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B:dim7', 'C', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B:dim7', 'C:maj', 'F:maj/A']]</t>
+          <t>[['G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(17.769637, 22.996281)]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(15.4, 17.9)]</t>
+          <t>[('0:00:03.100000', '0:00:05.580000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
+          <t>[('0:00:40.120000', '0:00:47.880000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(8.2, 23.6)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(2.58, 7.08)]</t>
+          <t>[('0:01:14.700000', '0:01:34.120000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:16.560000', '0:00:45.260000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_58</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['F', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(1.9, 5.58)]</t>
+          <t>[['G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(8.3, 14.36)]</t>
+          <t>[('0:00:41.895260', '0:00:54.712675')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:03.560000', '0:01:10.960000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(47.58, 50.04)]</t>
+          <t>[('0:00:27', '0:00:49.860000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:16.840000', '0:00:21.540000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(35.82, 37.76)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82)]</t>
+          <t>[('0:01:05.440000', '0:01:06.820000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:16.240000', '0:00:18.880000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['A/3', 'E:7', 'A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(2.56, 4.8), (0.3, 3.34)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86), (26.2, 33.96)]</t>
+          <t>[('0:00:58.557000', '0:01:02.834000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:20.560000', '0:00:23.940000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_6</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9375</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(6.94, 15.94)]</t>
+          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74)]</t>
+          <t>[('0:03:16.576000', '0:04:10.057000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:02:13.919000', '0:02:27.191000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(7.4, 18.24)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[('0:00:05', '0:01:54.060000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:06.040000', '0:01:50.760000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_124</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_75</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(46.52, 48.94)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(1.92, 8.32)]</t>
+          <t>[('0:00:18.380000', '0:01:02.360000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:16.380000', '0:00:59.980000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(10.12, 27.18)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(4.16, 8.8)]</t>
+          <t>[('0:00:09.240000', '0:00:28.040000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:05.700000', '0:00:19.720000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(5.4, 13.72)]</t>
+          <t>[('0:00:01.660000', '0:01:37')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:00.280000', '0:01:42.520000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'A:7', 'D:maj/A', 'D:min/A', 'A:maj', 'A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A', 'E:7/A', 'A:min', 'D:min/A', 'A:min', 'C:maj/G', 'D:min/F', 'C:maj/E', 'G:7', 'C:maj', 'A:min', 'A:7/G', 'D:maj/F#', 'G:(3,5,b7,b9)/F', 'C:maj/E', 'E:(3,5,b7,b9)/D', 'F:(3,5)', 'A:min/E', 'E:7', 'F:(3,5)', 'A:min/E', 'E:7', 'A:min', 'A:7', 'D:maj', 'D:min', 'A:maj', 'A:min/A', 'E:maj', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(0.62, 107.38)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(0.78, 98.82)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
